--- a/02_programme_task/xlsx_out/56.Titus.xlsx
+++ b/02_programme_task/xlsx_out/56.Titus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,403 +453,583 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, a servan16 t of God and an apostle of Jesus Christ, for the sake of the faith of God's elect and their knowledge of the truth, which accords with godliness, 2</t>
+          <t>The Letter of Paul to Titus Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Titus 1:3</t>
+          <t>Titus 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>and at the proper time manifested in his wor d through the preaching with which I have been entrusted by the command of God our Savior; 4</t>
+          <t>Paul, a servan t of God and a an apostle of Jesus Christ, for the sake of the faith of God s elect and b their knowledge of the truth, c which accords with godliness,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Titus 1:4</t>
+          <t>Titus 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>To Titus, my true child in a common faith: Grace and peace from God the Father and Christ Jesus our Savior. Qualifications for Elders 5</t>
+          <t>d in hope of eternal life, which God, e who never lies, f promised g before the ages bega n</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Titus 1:7</t>
+          <t>Titus 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For an overseer, as God's steward, must be above reproach. He must not be arrogant or quick- tempered or a drunkard or violent or greedy for gain, 8</t>
+          <t>and h at the proper time manifested in his wor d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Titus 1:8</t>
+          <t>Titus 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>but hospitable, a lover of good, self- controlled, upright, holy, and disciplined. 9</t>
+          <t>i through the preaching j with which I have been entrusted k by the command of God our Savior;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Titus 1:9</t>
+          <t>Titus 1:4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>He must hold firm to the trustworthy word as taught, so that he may be able to give instruction in soun16 d doctrine and also to rebuke those who contradict it.</t>
+          <t>To Titus, l my true child in m a common faith: n Grace and peace from God the Father and Christ Jesus our Savior. Qualifications for Elders</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Titus 1:10</t>
+          <t>Titus 1:5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For there are many who are insubordinate, empty talkers and deceivers, especially those of the circumcision party.</t>
+          <t>o This is why I left you in Crete, so that you might put what remained into order, and p appoint elders in every town as I directed yo u</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Titus 1:11</t>
+          <t>Titus 1:6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>They must be silenced, since they are upsetting whole families by teaching for shameful gain what they ought not to teach.</t>
+          <t>q if anyone is above reproach, the husband of one wife, and his children are believer s and not open to the charge of r debauchery or insubordination.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Titus 1:13</t>
+          <t>Titus 1:7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>This testimony is true. Therefore rebuke them sharply, that they may be sound in the faith,</t>
+          <t>For an overseer,</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Titus 2:1</t>
+          <t>Titus 1:8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>But as for you, teach what accords with soun16 d doctrine. 2</t>
+          <t>s as God s steward, must be above reproach. He must not t be arrogant or quick-tempered or a drunkard or violent u or greedy for gain,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Titus 2:2</t>
+          <t>Titus 1:8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Older men are to be sober- minded, dignified, self- controlled, sound in faith, in love, and in steadfastness. 3</t>
+          <t>but hospitable, a lover of good, self-controlled, upright, holy, v and disciplined.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Titus 2:4</t>
+          <t>Titus 1:9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>and so train the young women to love their husbands and children, 5</t>
+          <t>He must w hold firm to the trustworthy word as taught, so that he may be able to give instruction in x soun d doctrine and also to rebuke those who contradict it.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Titus 2:5</t>
+          <t>Titus 1:10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>to be self- controlled, pure, working at home, kind, and submissive to their own husbands, that the word of God may not be reviled. 6</t>
+          <t>For there are many who are insubordinate, y empty talkers and deceivers, especially those of z the circumcision party.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Titus 2:6</t>
+          <t>Titus 1:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Likewise, urge the younger men to be self- controlled. 7</t>
+          <t>They must be silenced, since a they are upsetting whole families by teaching b for shameful gain what they ought not to teach.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Titus 2:7</t>
+          <t>Titus 1:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Show yourself in all respects to be a model of good works, and in your teaching show integrity, dignity, 8</t>
+          <t>c One of the Cretans, a prophet of their own, said, Cretans are always liars, evil beasts, lazy gluttons.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Titus 2:8</t>
+          <t>Titus 1:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>and sound speech that cannot be condemned, so that an opponent may be put to shame, having nothing evil to say about us. 9</t>
+          <t>This testimony is true. Therefore d rebuke them e sharply, that they f may be sound in the faith,</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Titus 2:10</t>
+          <t>Titus 1:14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>not pilfering, but showing all good faith, so that in everything they may adorn the doctrine of God our Savior.</t>
+          <t>g not devoting themselves to Jewish myths and h the commands of people i who turn away from the truth.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Titus 2:11</t>
+          <t>Titus 1:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>For the grace of God has appeared, bringing salvation for all people,</t>
+          <t>j To the pure, all things are pure, but to the defiled and k unbelieving, nothing is pure; but both l their minds and their consciences are defiled.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Titus 2:12</t>
+          <t>Titus 1:16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>training us to renounce ungodliness and worldly passions, and to live self- controlled, upright, and godly lives in the pres173 ent age,</t>
+          <t>m They profess to know God, but they n deny him by their works. They are detestable, disobedient, o unfit for any good work. Teach Sound Doctrine</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Titus 2:15</t>
+          <t>Titus 2:1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Declare these things; exhort and rebuke with all authority. Let no one disregard you. Be Ready for Every Good Work 3</t>
+          <t>But as for you, teach what accords with p soun d doctrine.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Titus 3:1</t>
+          <t>Titus 2:2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Remind them to be submissive to rulers and authorities, to be obedient, to be ready for every good work, 2</t>
+          <t>Older men are to be sober-minded, dignified, self-controlled, p sound in faith, in love, and in steadfastness.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Titus 3:3</t>
+          <t>Titus 2:3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>For we ourselves were once foolish, disobedient, led astray, slaves to various passions and pleasures, passing our days in malice and envy, hated by others and hating one another. 4</t>
+          <t>q Older women likewise are to be reverent in behavior, r not slanderers s or slaves to much wine. They are to teach what is good,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Titus 3:4</t>
+          <t>Titus 2:4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>But when the goodness and loving kindness of God our Savior appeared, 5</t>
+          <t>and so train the young women to love their husbands and children,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Titus 3:5</t>
+          <t>Titus 2:5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>he saved us, not because of works done by us in righteousness, but according to his own mercy, by the washing of regeneration and renewal of the Holy Spirit, 6</t>
+          <t>to be self-controlled, t pure, u working at home, kind, and v submissive to their own husbands, w that the word of God may not be reviled.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Titus 3:6</t>
+          <t>Titus 2:6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>whom he poured out on us richly through Jesus Christ our Savior, 7</t>
+          <t>Likewise, urge x the younger men to be self-controlled.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Titus 3:7</t>
+          <t>Titus 2:7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>so that being justified by his grace we might become heirs according to the hope of eternal life. 8</t>
+          <t>Show yourself in all respects to be y a model of good works, and in your teaching z show integrity, a dignity,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Titus 3:8</t>
+          <t>Titus 2:8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The saying is trustworthy, and I want you to insist on these things, so that those who have believed in God may be careful to devote themselves to good works. These things are excellent and profitable for people. 9</t>
+          <t>and b sound speech that cannot be condemned, c so that an opponent may be put to shame, having nothing evil to say about us.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Titus 3:9</t>
+          <t>Titus 2:9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>But avoid foolish controversies, genealogies, dissensions, and quarrels about the law, for they are unprofitable and worthless.</t>
+          <t>d Bondservant s are to be submissive to their own masters e in everything; they are to be well-pleasing, not argumentative,</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Titus 3:10</t>
+          <t>Titus 2:10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>As for a person who stirs up division, after warning him once and then twice, have nothing more to do with him,</t>
+          <t>not pilfering, f but showing all good faith, g so that in everything they may adorn the doctrine of God our Savior.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Titus 3:11</t>
+          <t>Titus 2:11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>knowing that such a person is warped and sinful; he is self- condemned. Final Instructions and Greetings</t>
+          <t>For h the grace of God i has appeared, bringing salvation j for all people,</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Titus 3:12</t>
+          <t>Titus 2:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>When I send Artemas or Tychicus to you, do your best to come to me at Nicopolis, for I have decided to spend the winter there.</t>
+          <t>training us to renounce ungodliness and k worldly passions, and l to live self-controlled, upright, and godly lives in m the pres?ent age,</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Titus 3:13</t>
+          <t>Titus 2:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Do your best to speed Zenas the lawyer and Apollos on their way; see that they lack nothing.</t>
+          <t>n waiting for our blessed o hope, the p appearing of the glory of our great q God and Savior Jesus Christ,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Titus 3:14</t>
+          <t>Titus 2:14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And let our people learn to devote themselves to good works, so as to help cases of urgent need, and not be unfruitful.</t>
+          <t>r who gave himself for us to s redeem us from all lawlessness and t to purify for himself t a people for his own possession who are u zealous for good works.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Titus 2:15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Declare these things; exhort and v rebuke with all authority. w Let no one disregard you. Be Ready for Every Good Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Titus 3:1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Remind them x to be submissive to rulers and authorities, y to be obedient, to be ready for every good work,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Titus 3:2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>z to speak evil of no one, a to avoid quarreling, to be gentle, and b to show perfect courtesy toward all people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Titus 3:3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>For c we ourselves were once foolish, disobedient, led astray, slaves to various passions and pleasures, passing our days in malice and envy, hated by others and hating one another.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Titus 3:4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>But when d the goodness and loving kindness of God our Savior appeared,</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Titus 3:5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>he saved us, e not because of works done by us in righteousness, but f according to his own mercy, by g the washing of regeneration and h renewal of the Holy Spirit,</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Titus 3:6</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>whom he i poured out on us richly through Jesus Christ our Savior,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Titus 3:7</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>so that j being justified by his grace we might become k heirs l according to the hope of eternal life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Titus 3:8</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>The saying is m trustworthy, and I want you to insist on these things, so that those who have believed in God may be careful n to devote themselves to good works. These things are excellent and profitable for people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Titus 3:9</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>But o avoid foolish p controversies, q genealogies, dissensions, and quarrels about the law, for r they are unprofitable and worthless.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Titus 3:10</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>As for a person who stirs up division, s after warning him once and then twice, t have nothing more to do with him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Titus 3:11</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>knowing that such a person is warped and sinful; he is self-condemned. Final Instructions and Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Titus 3:12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>When I send Artemas or u Tychicus to you, do your best to come to me v at Nicopolis, for I have decided to spend the winter there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Titus 3:13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Do your best to speed Zenas the lawyer and w Apollos on their way; see that they lack nothing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Titus 3:14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>And let our people learn x to devote themselves to good works, so as to help cases of urgent need, and not y be unfruitful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Titus 3:15</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>All who are with me send greetings to you. Greet those who love us in the faith. Grace be with you all.</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>All who are with me send greetings to you. Greet those who love us in the faith. z Grace be with you all.</t>
         </is>
       </c>
     </row>
